--- a/Proyecto Final/Codigo/Analisis de Datos/Polucion/raw_data/Movil_7ma_PM10_22-01-2024.xlsx
+++ b/Proyecto Final/Codigo/Analisis de Datos/Polucion/raw_data/Movil_7ma_PM10_22-01-2024.xlsx
@@ -31,76 +31,76 @@
     <t xml:space="preserve">µg/m3</t>
   </si>
   <si>
-    <t xml:space="preserve">22-01-2022 01:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 03:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 04:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 06:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 07:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 08:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 09:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 20:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 21:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 23:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-01-2022 24:00</t>
+    <t xml:space="preserve">22-01-2024 01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-01-2024 24:00</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C5">
              </c>
@@ -272,7 +272,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C6">
              </c>
@@ -282,7 +282,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7">
              </c>
@@ -292,7 +292,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C8">
              </c>
@@ -302,7 +302,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C9">
              </c>
@@ -312,7 +312,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C10">
              </c>
@@ -322,7 +322,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C11">
              </c>
@@ -332,7 +332,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C12">
              </c>
@@ -342,7 +342,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C13">
              </c>
@@ -351,9 +351,8 @@
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>58</v>
-      </c>
+      <c r="B14" s="5">
+             </c>
       <c r="C14">
              </c>
     </row>
@@ -362,7 +361,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C15">
              </c>
@@ -372,7 +371,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16">
              </c>
@@ -382,7 +381,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17">
              </c>
@@ -392,7 +391,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C18">
              </c>
@@ -402,7 +401,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19">
              </c>
@@ -412,7 +411,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C20">
              </c>
@@ -422,7 +421,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="6" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C21">
              </c>
@@ -432,7 +431,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C22">
              </c>
@@ -442,7 +441,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="6" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C23">
              </c>
@@ -451,9 +450,8 @@
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>45</v>
-      </c>
+      <c r="B24" s="5">
+             </c>
       <c r="C24">
              </c>
     </row>
@@ -462,7 +460,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="6" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C25">
              </c>
@@ -471,8 +469,9 @@
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5">
-             </c>
+      <c r="B26" s="5" t="n">
+        <v>39</v>
+      </c>
       <c r="C26">
              </c>
     </row>
@@ -481,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="6" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C27">
              </c>
